--- a/data/trans_bre/CONS_ALER-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>-13,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>82,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,3%</t>
+          <t>88,44%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,6</t>
+          <t>-2,5; 1,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,03</t>
+          <t>-0,51; 5,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 0,81</t>
+          <t>0,13; 6,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,24; 266,61</t>
+          <t>-49,52; 51,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 275,82</t>
+          <t>-19,0; 348,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,56; 27,08</t>
+          <t>-0,09; 262,6</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>135,64%</t>
+          <t>106,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>82,33%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,63</t>
+          <t>-1,54; 3,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 7,31</t>
+          <t>0,1; 7,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,07</t>
+          <t>-0,23; 6,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,1; 210,18</t>
+          <t>-42,73; 178,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,18; 355,37</t>
+          <t>-3,96; 375,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,68; 152,5</t>
+          <t>-8,75; 297,54</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>259,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,22%</t>
+          <t>70,41%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 6,3</t>
+          <t>-1,03; 4,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,66</t>
+          <t>0,63; 9,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 4,28</t>
+          <t>-1,0; 6,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 251,68</t>
+          <t>-24,51; 155,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,06; 176,42</t>
+          <t>10,28; 2771,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 148,32</t>
+          <t>-32,8; 301,81</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>127,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>-11,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>20,97%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,59</t>
+          <t>0,86; 4,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,22</t>
+          <t>-3,5; 2,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,2</t>
+          <t>-1,57; 3,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 116,24</t>
+          <t>28,56; 311,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 154,13</t>
+          <t>-69,34; 77,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 196,15</t>
+          <t>-23,31; 95,14</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>15,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,85%</t>
+          <t>362,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,93</t>
+          <t>-0,9; 4,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,73</t>
+          <t>-0,49; 46,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,48</t>
+          <t>-2,72; 6,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 113,85</t>
+          <t>-17,57; 191,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 295,18</t>
+          <t>-12,01; 5894,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 186,57</t>
+          <t>-40,66; 192,77</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-26,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 27,22</t>
+          <t>-2,8; 2,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,91</t>
+          <t>-10,4; 3,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,71</t>
+          <t>-30,13; 22,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-60,49; 159,44</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-79,79; 250,5</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-61,48; 205,97</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-52,51; 122,4</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>131,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>51,84%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,55</t>
+          <t>0,07; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,06</t>
+          <t>0,76; 16,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,57</t>
+          <t>0,67; 3,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 92,27</t>
+          <t>1,92; 68,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,32; 101,26</t>
+          <t>19,68; 683,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 57,52</t>
+          <t>11,05; 104,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ALER-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,86%</t>
+          <t>-12,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,57</t>
+          <t>-2,16; 1,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,55</t>
+          <t>-0,85; 5,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 51,78</t>
+          <t>-51,0; 55,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 348,93</t>
+          <t>-27,47; 313,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,0</t>
+          <t>-2,05; 1,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 7,53</t>
+          <t>0,14; 7,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 178,57</t>
+          <t>-50,19; 112,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 375,16</t>
+          <t>-0,05; 347,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>51,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,63</t>
+          <t>-0,75; 5,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 9,82</t>
+          <t>0,73; 9,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 155,69</t>
+          <t>-20,84; 188,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 2771,32</t>
+          <t>8,36; 1847,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>127,79%</t>
+          <t>153,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,27</t>
+          <t>1,44; 4,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,1</t>
+          <t>-3,93; 2,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,56; 311,2</t>
+          <t>48,15; 313,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,34; 77,95</t>
+          <t>-75,49; 80,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,45</t>
+          <t>-1,04; 3,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 46,0</t>
+          <t>-0,62; 48,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 191,85</t>
+          <t>-22,71; 156,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 5894,79</t>
+          <t>-14,55; 3070,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>-11,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 2,36</t>
+          <t>-2,99; 2,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 3,05</t>
+          <t>-11,2; 2,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 159,44</t>
+          <t>-57,69; 161,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 250,5</t>
+          <t>-80,27; 183,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,86</t>
+          <t>0,07; 1,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 16,2</t>
+          <t>0,72; 15,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 68,7</t>
+          <t>1,78; 65,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,68; 683,79</t>
+          <t>16,01; 547,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_ALER-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,42</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>86,19%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>88,44%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-12,71%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>82,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>88,44%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,44; 5,35</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 6,46</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-2,16; 1,23</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 5,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 6,46</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-15,03; 331,96</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 262,6</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-51,0; 55,05</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-27,47; 313,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 262,6</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,01</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>100,34%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>82,33%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,18%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>106,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>82,33%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,18; 6,91</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 6,4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-2,05; 1,99</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 7,05</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 6,4</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-4,15; 318,82</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 297,54</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-50,19; 112,57</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 347,56</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; 297,54</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,91</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>73,58%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>70,41%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>51,67%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>259,91%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>70,41%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,63; 7,32</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 6,85</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,75; 5,63</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 9,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 6,85</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-52,43; 341,46</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-32,8; 301,81</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-20,84; 188,38</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>8,36; 1847,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-32,8; 301,81</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,86</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>153,29%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-11,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>20,97%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,61; 3,26</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 3,83</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,44; 4,51</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 2,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 3,83</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-30,68; 132,77</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-23,31; 95,14</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>48,15; 313,5</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-75,49; 80,3</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-23,31; 95,14</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,67</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>15,83</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>53,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>45,21%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>362,07%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>25,35%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-1,47; 4,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 6,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-1,04; 3,84</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 48,92</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 6,17</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-27,45; 218,53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-40,66; 192,77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-22,71; 156,47</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,55; 3070,58</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-40,66; 192,77</t>
         </is>
       </c>
     </row>
@@ -1009,27 +1009,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-9,38%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-11,59%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-26,44%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-6,81; 2,83</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-30,13; 22,15</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-2,99; 2,08</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,2; 2,78</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-30,13; 22,15</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-73,55; 206,2</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-57,69; 161,54</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-80,27; 183,4</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,9</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>43,21%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>51,84%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>29,51%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>131,88%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>51,84%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,19; 2,81</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 3,73</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,07; 1,75</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 15,63</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 3,73</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>3,21; 93,67</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 104,68</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>1,78; 65,91</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>16,01; 547,33</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>11,05; 104,68</t>
         </is>
       </c>
     </row>
